--- a/玩家反馈Bug去重工具/example/BUG数据-20251217114141_87a34117.xlsx
+++ b/玩家反馈Bug去重工具/example/BUG数据-20251217114141_87a34117.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\美术基建品质提升测试\美术基建导入\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24120" windowHeight="7680"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,31 +86,22 @@
     <t>po责任人</t>
   </si>
   <si>
+    <t>25989</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
+    <t xml:space="preserve"> 跳砍后出现，看视频吧</t>
+  </si>
+  <si>
+    <t>https://feedback.nie.netease.com/#/feedbackDetail/4526416</t>
+  </si>
+  <si>
     <t>-空-</t>
   </si>
   <si>
     <t>品质测试</t>
-  </si>
-  <si>
-    <t>W王黎豪,L刘家莹</t>
-  </si>
-  <si>
-    <t>11076576</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>25989</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 跳砍后出现，看视频吧</t>
-  </si>
-  <si>
-    <t>https://feedback.nie.netease.com/#/feedbackDetail/4526416</t>
   </si>
   <si>
     <t>2025-12-16 23:06:55</t>
@@ -127,6 +126,12 @@
   2）问题类别：测试服体验问题
   3）反馈类型：BUG反馈
   4）反馈源：[2025-12-16 23:06:55] wechat-明日品质提升先锋测试群</t>
+  </si>
+  <si>
+    <t>11076576</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>25984</t>
@@ -169,9 +174,6 @@
     <t>11067114</t>
   </si>
   <si>
-    <t>11072640</t>
-  </si>
-  <si>
     <t>25977</t>
   </si>
   <si>
@@ -207,6 +209,12 @@
   6）问题类别：测试服体验问题
   7）反馈类型：BUG反馈
   8）反馈源：[2025-12-16 21:16:00] wechat-明日品质提升先锋测试群</t>
+  </si>
+  <si>
+    <t>W王黎豪,L刘家莹</t>
+  </si>
+  <si>
+    <t>11072640</t>
   </si>
   <si>
     <t>多贝雪山</t>
@@ -447,10 +455,38 @@
     <t>25870</t>
   </si>
   <si>
+    <t>直升机螺旋桨不动</t>
+  </si>
+  <si>
     <t>https://feedback.nie.netease.com/#/feedbackDetail/4525524</t>
   </si>
   <si>
     <t>2025-12-16 18:20:59</t>
+  </si>
+  <si>
+    <t>1、问题出现场景：直升机螺旋桨不动
+2、问题描述：|
+3、问题必现/偶现：
+4、重现步骤（必现时填写）：
+5、网络环境（WIFI/5G/4G）：
+6、游戏数字ID：1818038955
+7、使用设备型号：
+8、服务器名称：
+9、角色名：
+10、视频编号：
+11、游戏环境：
+12、现状描述：
+13、提出建议：
+14、理由支撑：
+15、其他：
+  1）设备平台：PC（台式或笔记本电脑）
+  2）CPU型号：9800X3D
+  3）显卡型号：7900XT
+  4）RAM内存容量：32G
+  5）硬盘容量：1TB
+  6）问题类别：测试服体验问题
+  7）反馈类型：BUG反馈
+  8）反馈源：[2025-12-16 18:20:59] wechat-明日品质提升先锋测试群</t>
   </si>
   <si>
     <t>25868</t>
@@ -535,10 +571,36 @@
     <t>25863</t>
   </si>
   <si>
+    <t>飞行载具视角</t>
+  </si>
+  <si>
     <t>https://feedback.nie.netease.com/#/feedbackDetail/4525021</t>
   </si>
   <si>
     <t>2025-12-16 16:09:11</t>
+  </si>
+  <si>
+    <t>1、问题出现场景：飞行载具视角
+2、问题描述：|
+3、问题必现/偶现：
+4、重现步骤（必现时填写）：
+5、网络环境（WIFI/5G/4G）：
+6、游戏数字ID：11075914
+7、使用设备型号：1+13
+8、服务器名称：
+9、角色名：
+10、视频编号：
+11、游戏环境：
+12、现状描述：
+13、提出建议：
+14、理由支撑：
+15、其他：
+  1）设备平台：移动端（安卓、iPhone/iPad）
+  2）问题类别：测试服体验问题
+  3）反馈类型：BUG反馈
+  4）1.召唤完飞机后，视角会拉近角色停留一秒，再上飞机.：
+  5）2.飞机自带的拍照功能退出后，视角回弹过于慢：
+  6）反馈源：[2025-12-16 16:09:11] wechat-明日品质提升先锋测试群</t>
   </si>
   <si>
     <t>25765</t>
@@ -731,73 +793,29 @@
   <si>
     <t>11075909</t>
   </si>
-  <si>
-    <t>1、问题出现场景：直升机螺旋桨不动
-2、问题描述：|
-3、问题必现/偶现：
-4、重现步骤（必现时填写）：
-5、网络环境（WIFI/5G/4G）：
-6、游戏数字ID：1818038955
-7、使用设备型号：
-8、服务器名称：
-9、角色名：
-10、视频编号：
-11、游戏环境：
-12、现状描述：
-13、提出建议：
-14、理由支撑：
-15、其他：
-  1）设备平台：PC（台式或笔记本电脑）
-  2）CPU型号：9800X3D
-  3）显卡型号：7900XT
-  4）RAM内存容量：32G
-  5）硬盘容量：1TB
-  6）问题类别：测试服体验问题
-  7）反馈类型：BUG反馈
-  8）反馈源：[2025-12-16 18:20:59] wechat-明日品质提升先锋测试群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直升机螺旋桨不动</t>
-  </si>
-  <si>
-    <t>1、问题出现场景：飞行载具视角
-2、问题描述：|
-3、问题必现/偶现：
-4、重现步骤（必现时填写）：
-5、网络环境（WIFI/5G/4G）：
-6、游戏数字ID：11075914
-7、使用设备型号：1+13
-8、服务器名称：
-9、角色名：
-10、视频编号：
-11、游戏环境：
-12、现状描述：
-13、提出建议：
-14、理由支撑：
-15、其他：
-  1）设备平台：移动端（安卓、iPhone/iPad）
-  2）问题类别：测试服体验问题
-  3）反馈类型：BUG反馈
-  4）1.召唤完飞机后，视角会拉近角色停留一秒，再上飞机.：
-  5）2.飞机自带的拍照功能退出后，视角回弹过于慢：
-  6）反馈源：[2025-12-16 16:09:11] wechat-明日品质提升先锋测试群</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞行载具视角</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,23 +823,153 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,8 +982,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -843,34 +1177,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -919,7 +1538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -954,7 +1573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,34 +1776,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="151.125" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1196,7 +1817,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1211,7 +1832,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1233,280 +1854,280 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" ht="243" customHeight="1" spans="1:19">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" ht="310.5" spans="1:19">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
+    <row r="4" ht="310.5" spans="1:19">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
       </c>
       <c r="P4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" ht="15" spans="1:19">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" ht="15" spans="1:19">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
         <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" ht="15" spans="1:19">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>57</v>
@@ -1515,142 +2136,142 @@
         <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" ht="15" spans="1:19">
       <c r="A8" t="s">
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" ht="324" spans="1:19">
       <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" ht="15" spans="1:19">
       <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
         <v>73</v>
@@ -1662,470 +2283,470 @@
         <v>75</v>
       </c>
       <c r="P10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2" t="s">
+    <row r="12" ht="15" spans="1:19">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
         <v>75</v>
       </c>
       <c r="P12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:19">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" t="s">
+    <row r="14" s="1" customFormat="1" ht="15" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="15" ht="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:19">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:16">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:16">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:16">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>99</v>
-      </c>
-      <c r="O15" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" t="s">
-        <v>105</v>
-      </c>
-      <c r="O16" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O17" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" t="s">
-        <v>124</v>
-      </c>
-      <c r="O19" t="s">
-        <v>125</v>
-      </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="/feedbackDetail/4526416"/>
-    <hyperlink ref="D3" r:id="rId2" location="/feedbackDetail/4526181"/>
-    <hyperlink ref="D4" r:id="rId3" location="/feedbackDetail/4526061"/>
-    <hyperlink ref="D5" r:id="rId4" location="/feedbackDetail/4526072"/>
-    <hyperlink ref="D6" r:id="rId5" location="/feedbackDetail/4526076"/>
-    <hyperlink ref="D7" r:id="rId6" location="/feedbackDetail/4526021"/>
-    <hyperlink ref="D8" r:id="rId7" location="/feedbackDetail/4526031"/>
-    <hyperlink ref="D9" r:id="rId8" location="/feedbackDetail/4526010"/>
-    <hyperlink ref="D10" r:id="rId9" location="/feedbackDetail/4525608"/>
-    <hyperlink ref="D11" r:id="rId10" location="/feedbackDetail/4525524"/>
-    <hyperlink ref="D12" r:id="rId11" location="/feedbackDetail/4525420"/>
-    <hyperlink ref="D13" r:id="rId12" location="/feedbackDetail/4525114"/>
-    <hyperlink ref="D14" r:id="rId13" location="/feedbackDetail/4525021"/>
-    <hyperlink ref="D15" r:id="rId14" location="/feedbackDetail/4524077"/>
-    <hyperlink ref="D16" r:id="rId15" location="/feedbackDetail/4524060"/>
-    <hyperlink ref="D17" r:id="rId16" location="/feedbackDetail/4523496"/>
-    <hyperlink ref="D18" r:id="rId17" location="/feedbackDetail/4523484"/>
-    <hyperlink ref="D19" r:id="rId18" location="/feedbackDetail/4523458"/>
+    <hyperlink ref="D2" r:id="rId1" location="/feedbackDetail/4526416" display="https://feedback.nie.netease.com/#/feedbackDetail/4526416"/>
+    <hyperlink ref="D3" r:id="rId1" location="/feedbackDetail/4526181" display="https://feedback.nie.netease.com/#/feedbackDetail/4526181"/>
+    <hyperlink ref="D4" r:id="rId1" location="/feedbackDetail/4526061" display="https://feedback.nie.netease.com/#/feedbackDetail/4526061"/>
+    <hyperlink ref="D5" r:id="rId1" location="/feedbackDetail/4526072" display="https://feedback.nie.netease.com/#/feedbackDetail/4526072"/>
+    <hyperlink ref="D6" r:id="rId1" location="/feedbackDetail/4526076" display="https://feedback.nie.netease.com/#/feedbackDetail/4526076"/>
+    <hyperlink ref="D7" r:id="rId1" location="/feedbackDetail/4526021" display="https://feedback.nie.netease.com/#/feedbackDetail/4526021"/>
+    <hyperlink ref="D8" r:id="rId1" location="/feedbackDetail/4526031" display="https://feedback.nie.netease.com/#/feedbackDetail/4526031"/>
+    <hyperlink ref="D9" r:id="rId1" location="/feedbackDetail/4526010" display="https://feedback.nie.netease.com/#/feedbackDetail/4526010"/>
+    <hyperlink ref="D10" r:id="rId1" location="/feedbackDetail/4525608" display="https://feedback.nie.netease.com/#/feedbackDetail/4525608"/>
+    <hyperlink ref="D11" r:id="rId1" location="/feedbackDetail/4525524" display="https://feedback.nie.netease.com/#/feedbackDetail/4525524"/>
+    <hyperlink ref="D12" r:id="rId1" location="/feedbackDetail/4525420" display="https://feedback.nie.netease.com/#/feedbackDetail/4525420"/>
+    <hyperlink ref="D13" r:id="rId1" location="/feedbackDetail/4525114" display="https://feedback.nie.netease.com/#/feedbackDetail/4525114"/>
+    <hyperlink ref="D14" r:id="rId1" location="/feedbackDetail/4525021" display="https://feedback.nie.netease.com/#/feedbackDetail/4525021"/>
+    <hyperlink ref="D15" r:id="rId1" location="/feedbackDetail/4524077" display="https://feedback.nie.netease.com/#/feedbackDetail/4524077"/>
+    <hyperlink ref="D16" r:id="rId1" location="/feedbackDetail/4524060" display="https://feedback.nie.netease.com/#/feedbackDetail/4524060"/>
+    <hyperlink ref="D17" r:id="rId1" location="/feedbackDetail/4523496" display="https://feedback.nie.netease.com/#/feedbackDetail/4523496"/>
+    <hyperlink ref="D18" r:id="rId1" location="/feedbackDetail/4523484" display="https://feedback.nie.netease.com/#/feedbackDetail/4523484"/>
+    <hyperlink ref="D19" r:id="rId1" location="/feedbackDetail/4523458" display="https://feedback.nie.netease.com/#/feedbackDetail/4523458"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>